--- a/w23.xlsx
+++ b/w23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Linkedin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\GitHub\LinkedIn-Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743310BB-D792-4C01-AD3E-1B969105FA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91145F1-13DB-4EAB-97F7-2898821366D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11880" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w23" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Last Name</t>
   </si>
@@ -142,148 +142,73 @@
     <t>Lee</t>
   </si>
   <si>
-    <t>campus / table</t>
-  </si>
-  <si>
-    <t>minjaelee0727@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jina </t>
   </si>
   <si>
     <t>Wong</t>
   </si>
   <si>
-    <t>elev8</t>
-  </si>
-  <si>
-    <t>J359wong@uwaterloo.ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">pinye </t>
   </si>
   <si>
-    <t>Beatsoul</t>
-  </si>
-  <si>
-    <t>p236wang@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Adanna</t>
   </si>
   <si>
     <t>amechi</t>
   </si>
   <si>
-    <t>tpb</t>
-  </si>
-  <si>
-    <t>aamechi@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Alfred</t>
   </si>
   <si>
     <t>Wu</t>
   </si>
   <si>
-    <t>sheepaw</t>
-  </si>
-  <si>
-    <t>xuxiang.wu@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Monica</t>
   </si>
   <si>
     <t>Tsang</t>
   </si>
   <si>
-    <t>monica.tsang@uwaterloo.ca</t>
-  </si>
-  <si>
-    <t>eijoahuw</t>
-  </si>
-  <si>
-    <t>h345wu@uwaterloo.ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jeffrey </t>
   </si>
   <si>
     <t>Keomany</t>
   </si>
   <si>
-    <t>student ambassador</t>
-  </si>
-  <si>
-    <t>jkeomany@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Eliza</t>
   </si>
   <si>
     <t>Qu</t>
   </si>
   <si>
-    <t>fluffycloset</t>
-  </si>
-  <si>
-    <t>J33qu@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Aakash</t>
   </si>
   <si>
-    <t>aakash.vasudevan@uwaterloo.ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tori </t>
   </si>
   <si>
-    <t>office coordinator</t>
-  </si>
-  <si>
-    <t>vbcoles@uwaterloo.ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kimmy </t>
   </si>
   <si>
     <t>Chui</t>
   </si>
   <si>
-    <t>k2chui@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Dhruvi</t>
   </si>
   <si>
-    <t>d83patel@uwaterloo.ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">shannon </t>
   </si>
   <si>
     <t>taylor</t>
   </si>
   <si>
-    <t>smtaylor@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Ren</t>
   </si>
   <si>
-    <t>renishaki.k@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esteban </t>
   </si>
   <si>
     <t>Veintimilla</t>
-  </si>
-  <si>
-    <t>esteban.veintimilla@uwaterloo.ca</t>
   </si>
   <si>
     <t>First Name</t>
@@ -1167,14 +1092,14 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1313,7 +1238,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -1329,222 +1254,141 @@
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16">
-        <v>6478700356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B30" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
